--- a/Отчеты/Отчет по участку изготовления СПУ.xlsx
+++ b/Отчеты/Отчет по участку изготовления СПУ.xlsx
@@ -8,17 +8,24 @@
   </bookViews>
   <sheets>
     <sheet name="Сводный отчет" sheetId="1" r:id="rId1"/>
-    <sheet name="КДС 15х40 ПромБаза" sheetId="2" r:id="rId2"/>
-    <sheet name="027 18х24 СГРК" sheetId="3" r:id="rId3"/>
-    <sheet name="026 30х45 ГАС" sheetId="4" r:id="rId4"/>
-    <sheet name="028 15х30 СусуманЗолото" sheetId="5" r:id="rId5"/>
+    <sheet name="014 12х28 ЛГСС" sheetId="2" r:id="rId2"/>
+    <sheet name="029 15х30х3 СусуманЗолото" sheetId="3" r:id="rId3"/>
+    <sheet name="031 15х20х3 СусуманЗолото" sheetId="4" r:id="rId4"/>
+    <sheet name="030 15х30х7,5 СусуманЗолото" sheetId="5" r:id="rId5"/>
+    <sheet name="033 15х30х6 СусуманЗолото" sheetId="6" r:id="rId6"/>
+    <sheet name="032 12х25х5 СусуманЗолото" sheetId="7" r:id="rId7"/>
+    <sheet name="037 22х39 ТСГ Асача" sheetId="8" r:id="rId8"/>
+    <sheet name="007 20х50 НерюнгриМеталлик " sheetId="9" r:id="rId9"/>
+    <sheet name="015 20х50 МодернМашинери" sheetId="10" r:id="rId10"/>
+    <sheet name="026 30х45 ГАС" sheetId="11" r:id="rId11"/>
+    <sheet name="041 18х60 ВЧНГ" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="113">
   <si>
     <t>Cводный отчет по участку производства утеплителя</t>
   </si>
@@ -26,7 +33,7 @@
     <t>Текущая дата:</t>
   </si>
   <si>
-    <t>23 мар 22</t>
+    <t>03 авг 22</t>
   </si>
   <si>
     <t>План месяц, м2</t>
@@ -53,7 +60,7 @@
     <t>Готовность к отгрузке</t>
   </si>
   <si>
-    <t>КДС 15х40 ПромБаза</t>
+    <t>029 15х30х3 СусуманЗолото</t>
   </si>
   <si>
     <t>Итого:</t>
@@ -65,6 +72,9 @@
     <t>Проект:</t>
   </si>
   <si>
+    <t>014 12х28 ЛГСС</t>
+  </si>
+  <si>
     <t>Утеплитель</t>
   </si>
   <si>
@@ -74,6 +84,9 @@
     <t>Раскрой полипропилена</t>
   </si>
   <si>
+    <t>Пришить крючки и петли</t>
+  </si>
+  <si>
     <t>Сшивка полипропилена</t>
   </si>
   <si>
@@ -83,28 +96,274 @@
     <t>Пробивка люверс</t>
   </si>
   <si>
+    <t>Сборка</t>
+  </si>
+  <si>
     <t>Упаковано</t>
   </si>
   <si>
     <t>Общая готовность утеплителя</t>
   </si>
   <si>
-    <t>11 мар 22</t>
-  </si>
-  <si>
-    <t>12 мар 22</t>
-  </si>
-  <si>
-    <t>13 мар 22</t>
-  </si>
-  <si>
-    <t>027 18х24 СГРК</t>
+    <t>27 мар 22</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>28 мар 22</t>
+  </si>
+  <si>
+    <t>02 апр 22</t>
+  </si>
+  <si>
+    <t>04 апр 22</t>
+  </si>
+  <si>
+    <t>05 апр 22</t>
+  </si>
+  <si>
+    <t>06 апр 22</t>
+  </si>
+  <si>
+    <t>031 15х20х3 СусуманЗолото</t>
+  </si>
+  <si>
+    <t>27 апр 22</t>
+  </si>
+  <si>
+    <t>28 апр 22</t>
+  </si>
+  <si>
+    <t>29 апр 22</t>
+  </si>
+  <si>
+    <t>030 15х30х7,5 СусуманЗолото</t>
+  </si>
+  <si>
+    <t>07 апр 22</t>
+  </si>
+  <si>
+    <t>10 апр 22</t>
+  </si>
+  <si>
+    <t>11 апр 22</t>
+  </si>
+  <si>
+    <t>13 апр 22</t>
+  </si>
+  <si>
+    <t>14 апр 22</t>
+  </si>
+  <si>
+    <t>16 апр 22</t>
+  </si>
+  <si>
+    <t>18 апр 22</t>
+  </si>
+  <si>
+    <t>19 апр 22</t>
+  </si>
+  <si>
+    <t>20 апр 22</t>
+  </si>
+  <si>
+    <t>21 апр 22</t>
+  </si>
+  <si>
+    <t>22 апр 22</t>
+  </si>
+  <si>
+    <t>033 15х30х6 СусуманЗолото</t>
+  </si>
+  <si>
+    <t>032 12х25х5 СусуманЗолото</t>
+  </si>
+  <si>
+    <t>23 апр 22</t>
+  </si>
+  <si>
+    <t>25 апр 22</t>
+  </si>
+  <si>
+    <t>26 апр 22</t>
+  </si>
+  <si>
+    <t>037 22х39 ТСГ Асача</t>
+  </si>
+  <si>
+    <t>24 май 22</t>
+  </si>
+  <si>
+    <t>25 май 22</t>
+  </si>
+  <si>
+    <t>29 май 22</t>
+  </si>
+  <si>
+    <t>30 май 22</t>
+  </si>
+  <si>
+    <t>07 июн 22</t>
+  </si>
+  <si>
+    <t>08 июн 22</t>
+  </si>
+  <si>
+    <t>09 июн 22</t>
+  </si>
+  <si>
+    <t>13 июн 22</t>
+  </si>
+  <si>
+    <t>14 июн 22</t>
+  </si>
+  <si>
+    <t>15 июн 22</t>
+  </si>
+  <si>
+    <t>16 июн 22</t>
+  </si>
+  <si>
+    <t>18 июн 22</t>
+  </si>
+  <si>
+    <t>20 июн 22</t>
+  </si>
+  <si>
+    <t>21 июн 22</t>
+  </si>
+  <si>
+    <t>22 июн 22</t>
+  </si>
+  <si>
+    <t>23 июн 22</t>
+  </si>
+  <si>
+    <t>25 июн 22</t>
+  </si>
+  <si>
+    <t>27 июн 22</t>
+  </si>
+  <si>
+    <t>28 июн 22</t>
+  </si>
+  <si>
+    <t>29 июн 22</t>
+  </si>
+  <si>
+    <t>30 июн 22</t>
+  </si>
+  <si>
+    <t>01 июл 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007 20х50 НерюнгриМеталлик </t>
+  </si>
+  <si>
+    <t>03 май 22</t>
+  </si>
+  <si>
+    <t>08 май 22</t>
+  </si>
+  <si>
+    <t>11 май 22</t>
+  </si>
+  <si>
+    <t>12 май 22</t>
+  </si>
+  <si>
+    <t>14 май 22</t>
+  </si>
+  <si>
+    <t>16 май 22</t>
+  </si>
+  <si>
+    <t>17 май 22</t>
+  </si>
+  <si>
+    <t>19 май 22</t>
+  </si>
+  <si>
+    <t>21 май 22</t>
+  </si>
+  <si>
+    <t>23 май 22</t>
+  </si>
+  <si>
+    <t>015 20х50 МодернМашинери</t>
+  </si>
+  <si>
+    <t>31 май 22</t>
+  </si>
+  <si>
+    <t>01 июн 22</t>
+  </si>
+  <si>
+    <t>02 июн 22</t>
+  </si>
+  <si>
+    <t>03 июн 22</t>
+  </si>
+  <si>
+    <t>04 июл 22</t>
+  </si>
+  <si>
+    <t>05 июл 22</t>
+  </si>
+  <si>
+    <t>06 июл 22</t>
+  </si>
+  <si>
+    <t>07 июл 22</t>
+  </si>
+  <si>
+    <t>08 июл 22</t>
+  </si>
+  <si>
+    <t>11 июл 22</t>
+  </si>
+  <si>
+    <t>12 июл 22</t>
+  </si>
+  <si>
+    <t>14 июл 22</t>
+  </si>
+  <si>
+    <t>15 июл 22</t>
+  </si>
+  <si>
+    <t>18 июл 22</t>
+  </si>
+  <si>
+    <t>19 июл 22</t>
+  </si>
+  <si>
+    <t>20 июл 22</t>
+  </si>
+  <si>
+    <t>21 июл 22</t>
+  </si>
+  <si>
+    <t>22 июл 22</t>
+  </si>
+  <si>
+    <t>25 июл 22</t>
+  </si>
+  <si>
+    <t>26 июл 22</t>
+  </si>
+  <si>
+    <t>27 июл 22</t>
+  </si>
+  <si>
+    <t>01 авг 22</t>
   </si>
   <si>
     <t>026 30х45 ГАС</t>
   </si>
   <si>
-    <t>028 15х30 СусуманЗолото</t>
+    <t>041 18х60 ВЧНГ</t>
   </si>
 </sst>
 </file>
@@ -201,7 +460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -210,10 +469,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>2445</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -580,31 +839,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8">
-        <v>12.2024</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5.795400000000001</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="8">
-        <f>СУММ(D8:D8)</f>
+        <f>SUM(D8:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -626,9 +871,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -636,28 +881,30 @@
   <cols>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -665,154 +912,2468 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.2295</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.1582</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.1114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.4216</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.3503</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.2218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.5089</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.4376</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.2719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.6677</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.6677</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.3838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.7328</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.6615000000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.4007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.0304</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.0304</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.5876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.08220000000000001</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.08220000000000001</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.0405</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.6096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.0924</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.0924</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.0303</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.5481999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.1246</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.1246</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.0303</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.5642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.1588</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.1588</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.0303</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.5812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.1492</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.1492</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.1492</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.5898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.1774</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.1774</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.1633</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.6034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.1915</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.1915</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.1774</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.6102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.2338</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.2338</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.2197</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.6306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.2761</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.2761</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.2197</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.6509999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B20" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.3043</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.3043</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.2197</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.6646000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.3466</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.3466</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.3325</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="B22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.389</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.389</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.389</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.7054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="B23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.4454</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.4454</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.389</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.7326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="B24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.5159</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.5159</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.4595</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.7665999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="B25" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.5918</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.5918</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.5440999999999999</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.8031999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.0378</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.0413</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.4158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.0378</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.0413</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.4158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.0378</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.0413</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.4158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.0378</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.0413</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.475</v>
+      <c r="B26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.9581000000000001</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.9420000000000001</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.9259000000000001</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.9759</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:H27">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:H5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:H5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.1633</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.1633</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.5264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.5431</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.4888</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.7706999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.8309000000000001</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.4888</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.8388999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.3259</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:H11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:H6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.3789</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.4283</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.7472000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.9087000000000001</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.9792999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:H8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.1047</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.1047</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.0552</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.0629</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.0848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.1047</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.1047</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.1262</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.1438</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.1176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.2189</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.2777</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.2144</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.1978</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.2302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.2189</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.2777</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.2917</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.2859</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.3644</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.3688</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.3333</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.5361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.5014999999999999</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.525</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.5014999999999999</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.5996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.525</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.5014999999999999</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.6378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.9632999999999999</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.9632999999999999</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.5317000000000001</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.5075</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.8069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.7010999999999999</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.5710000000000001</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.5075</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.8436999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.8289</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.7098</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.6026</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.9015000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.9634</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.6026</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.9915999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.6026</v>
+      </c>
+      <c r="J16" s="9">
+        <v>1.0001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:H17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:H5">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.6498</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.6602</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.8896000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.8493000000000001</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H9">
     <cfRule type="dataBar" priority="1">
@@ -827,9 +3388,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -837,28 +3398,30 @@
   <cols>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -866,52 +3429,766 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.3202</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.2363</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.1687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.4729</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.4729</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.2866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.0733</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.08749999999999999</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.6375999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.08789999999999999</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.105</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.6437999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.0953</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.1137</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.1118</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.1334</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.6542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.1489</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.1334</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.6620999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.3029</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.3615</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.0443</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.3624</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.4326</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.0443</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.7615999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.4484</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.5275</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.2165</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.7866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.5171</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.6084000000000001</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.3365</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.8173999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.5514</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.6487999999999999</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.4733</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.8326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.6167</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.7256</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.4733</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.662</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.7787999999999999</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.4733</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.8822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="11">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.7108</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.8362000000000001</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.4733</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.9039999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.7437999999999999</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.8751000000000001</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.4733</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.9188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.7902</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.9297</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.5494</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.9396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="B22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.8106</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.9537</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.7025</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.9488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="B23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.8377</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.9856</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.7025</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.9608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="B24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.8692</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.7025</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.9706999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="B25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.9345</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.9340999999999999</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.9853000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="11">
         <v>22</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:H5">
+  <conditionalFormatting sqref="C5:H27">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -924,9 +4201,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -934,28 +4211,30 @@
   <cols>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="4" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -963,149 +4242,382 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.4601</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.4005</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.2841</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.2841</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.117</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.3628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.4044</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.4044</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.117</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.7254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.4944</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.4794</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.117</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.7634000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.5844</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.5694</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.117</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.8048999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.6744</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.6594</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.117</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.8465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.7495000000000001</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.7343999999999999</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.4344</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.8811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.8245</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.8095</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.4344</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.9157000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.8893000000000001</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.8893000000000001</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.4344</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.9490000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.9904999999999999</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.9761</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.4344</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.9924000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A3:J3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:H5">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="4" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5:H5">
+  <conditionalFormatting sqref="C5:H15">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>

--- a/Отчеты/Отчет по участку изготовления СПУ.xlsx
+++ b/Отчеты/Отчет по участку изготовления СПУ.xlsx
@@ -25,15 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="114">
-  <si>
-    <t>Cводный отчет по участку производства утеплителя</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="116">
+  <si>
+    <t>Сводный отчет по участку производства утеплителя</t>
   </si>
   <si>
     <t>Текущая дата:</t>
   </si>
   <si>
-    <t>10 авг 22</t>
+    <t>11 авг 22</t>
   </si>
   <si>
     <t>План месяц, м2</t>
@@ -87,9 +87,6 @@
     <t>Наклейка синтепона</t>
   </si>
   <si>
-    <t>Сборка без клея</t>
-  </si>
-  <si>
     <t>Пробивка люверс</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>фрфрф</t>
-  </si>
-  <si>
     <t>28 мар 22</t>
   </si>
   <si>
@@ -366,7 +360,19 @@
     <t>026 30х45 ГАС</t>
   </si>
   <si>
+    <t>09 авг 22</t>
+  </si>
+  <si>
     <t>041 18х60 ВЧНГ</t>
+  </si>
+  <si>
+    <t>04 авг 22</t>
+  </si>
+  <si>
+    <t>05 авг 22</t>
+  </si>
+  <si>
+    <t>08 авг 22</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -884,7 +890,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -895,14 +901,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -910,9 +915,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -923,9 +927,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -950,653 +953,584 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="12">
         <v>0.2295</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
+      <c r="F5" s="12">
+        <v>0</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
         <v>0.1114</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="12">
         <v>0.4216</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
+      <c r="F6" s="12">
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
       </c>
       <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
         <v>0.2218</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="12">
         <v>0.5089</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
+      <c r="F7" s="12">
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
         <v>0.2719</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="12">
         <v>0.6677</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
+      <c r="F8" s="12">
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
         <v>0.3838</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="12">
         <v>0.7328</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
+      <c r="F9" s="12">
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <v>0</v>
       </c>
       <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
         <v>0.4007</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12">
         <v>0.0304</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>26</v>
+      <c r="F10" s="12">
+        <v>0.0304</v>
       </c>
       <c r="G10" s="12">
-        <v>0.0304</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
         <v>0.5876</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="12">
         <v>0.08220000000000001</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>26</v>
+      <c r="F11" s="12">
+        <v>0.08220000000000001</v>
       </c>
       <c r="G11" s="12">
-        <v>0.08220000000000001</v>
+        <v>0.0405</v>
       </c>
       <c r="H11" s="12">
-        <v>0.0405</v>
-      </c>
-      <c r="I11" s="12">
         <v>0.6096</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12">
         <v>0.0924</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
+      <c r="F12" s="12">
+        <v>0.0924</v>
       </c>
       <c r="G12" s="12">
-        <v>0.0924</v>
+        <v>0.0303</v>
       </c>
       <c r="H12" s="12">
-        <v>0.0303</v>
-      </c>
-      <c r="I12" s="12">
         <v>0.5481999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="12">
         <v>0.1246</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>26</v>
+      <c r="F13" s="12">
+        <v>0.1246</v>
       </c>
       <c r="G13" s="12">
-        <v>0.1246</v>
+        <v>0.0303</v>
       </c>
       <c r="H13" s="12">
-        <v>0.0303</v>
-      </c>
-      <c r="I13" s="12">
         <v>0.5642</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="12">
         <v>0.1588</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>26</v>
+      <c r="F14" s="12">
+        <v>0.1588</v>
       </c>
       <c r="G14" s="12">
-        <v>0.1588</v>
+        <v>0.0303</v>
       </c>
       <c r="H14" s="12">
-        <v>0.0303</v>
-      </c>
-      <c r="I14" s="12">
         <v>0.5812</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="12">
         <v>0.1492</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>26</v>
+      <c r="F15" s="12">
+        <v>0.1492</v>
       </c>
       <c r="G15" s="12">
         <v>0.1492</v>
       </c>
       <c r="H15" s="12">
-        <v>0.1492</v>
-      </c>
-      <c r="I15" s="12">
         <v>0.5898</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="12">
         <v>0.1774</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
+      <c r="F16" s="12">
+        <v>0.1774</v>
       </c>
       <c r="G16" s="12">
-        <v>0.1774</v>
+        <v>0.1633</v>
       </c>
       <c r="H16" s="12">
-        <v>0.1633</v>
-      </c>
-      <c r="I16" s="12">
         <v>0.6034</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="12">
         <v>0.1915</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
+      <c r="F17" s="12">
+        <v>0.1915</v>
       </c>
       <c r="G17" s="12">
-        <v>0.1915</v>
+        <v>0.1774</v>
       </c>
       <c r="H17" s="12">
-        <v>0.1774</v>
-      </c>
-      <c r="I17" s="12">
         <v>0.6102</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="12">
         <v>0.2338</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>26</v>
+      <c r="F18" s="12">
+        <v>0.2338</v>
       </c>
       <c r="G18" s="12">
-        <v>0.2338</v>
+        <v>0.2197</v>
       </c>
       <c r="H18" s="12">
-        <v>0.2197</v>
-      </c>
-      <c r="I18" s="12">
         <v>0.6306</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="12">
         <v>0.2761</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>26</v>
+      <c r="F19" s="12">
+        <v>0.2761</v>
       </c>
       <c r="G19" s="12">
-        <v>0.2761</v>
+        <v>0.2197</v>
       </c>
       <c r="H19" s="12">
-        <v>0.2197</v>
-      </c>
-      <c r="I19" s="12">
         <v>0.6509999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="12">
         <v>0.3043</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>26</v>
+      <c r="F20" s="12">
+        <v>0.3043</v>
       </c>
       <c r="G20" s="12">
-        <v>0.3043</v>
+        <v>0.2197</v>
       </c>
       <c r="H20" s="12">
-        <v>0.2197</v>
-      </c>
-      <c r="I20" s="12">
         <v>0.6646000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="12">
         <v>0.3466</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>26</v>
+      <c r="F21" s="12">
+        <v>0.3466</v>
       </c>
       <c r="G21" s="12">
-        <v>0.3466</v>
+        <v>0.3325</v>
       </c>
       <c r="H21" s="12">
-        <v>0.3325</v>
-      </c>
-      <c r="I21" s="12">
         <v>0.6850000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="12">
         <v>0.389</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>26</v>
+      <c r="F22" s="12">
+        <v>0.389</v>
       </c>
       <c r="G22" s="12">
         <v>0.389</v>
       </c>
       <c r="H22" s="12">
-        <v>0.389</v>
-      </c>
-      <c r="I22" s="12">
         <v>0.7054</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="10">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="12">
         <v>0.4454</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>26</v>
+      <c r="F23" s="12">
+        <v>0.4454</v>
       </c>
       <c r="G23" s="12">
-        <v>0.4454</v>
+        <v>0.389</v>
       </c>
       <c r="H23" s="12">
-        <v>0.389</v>
-      </c>
-      <c r="I23" s="12">
         <v>0.7326</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="10">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="12">
         <v>0.5159</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>26</v>
+      <c r="F24" s="12">
+        <v>0.5159</v>
       </c>
       <c r="G24" s="12">
-        <v>0.5159</v>
+        <v>0.4595</v>
       </c>
       <c r="H24" s="12">
-        <v>0.4595</v>
-      </c>
-      <c r="I24" s="12">
         <v>0.7665999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" s="10">
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="12">
         <v>0.5918</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>26</v>
+      <c r="F25" s="12">
+        <v>0.5918</v>
       </c>
       <c r="G25" s="12">
-        <v>0.5918</v>
+        <v>0.5440999999999999</v>
       </c>
       <c r="H25" s="12">
-        <v>0.5440999999999999</v>
-      </c>
-      <c r="I25" s="12">
         <v>0.8031999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" s="10">
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="12">
         <v>0.9581000000000001</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>26</v>
+      <c r="F26" s="12">
+        <v>0.9420000000000001</v>
       </c>
       <c r="G26" s="12">
-        <v>0.9420000000000001</v>
+        <v>0.9259000000000001</v>
       </c>
       <c r="H26" s="12">
-        <v>0.9259000000000001</v>
-      </c>
-      <c r="I26" s="12">
         <v>0.9759</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H27">
     <cfRule type="dataBar" priority="1">
@@ -1613,7 +1547,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1624,7 +1558,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -1635,14 +1569,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1650,9 +1583,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1663,9 +1595,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1690,17 +1621,40 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.1084</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.119</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.0149</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.0885</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:H5">
+  <conditionalFormatting sqref="C5:H6">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -1715,7 +1669,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,7 +1680,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -1737,14 +1691,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1752,9 +1705,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1765,9 +1717,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1792,17 +1743,144 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.7208</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.4489</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.3874</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.028</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.4967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.7208</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.2074</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.4172</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.112</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.5892999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.7208</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.5311</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.4927</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.7350999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.7513</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.8439</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.6473</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.8512000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1.0002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:H5">
+  <conditionalFormatting sqref="C5:H10">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -1817,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1828,7 +1906,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -1839,9 +1917,8 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1854,9 +1931,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1867,9 +1943,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1894,189 +1969,168 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="12">
         <v>0.1633</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
+      <c r="F5" s="12">
+        <v>0</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
         <v>0.08599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
+      <c r="F6" s="12">
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
       </c>
       <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
         <v>0.5264</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12">
         <v>0.5431</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
+      <c r="F7" s="12">
+        <v>0.4888</v>
       </c>
       <c r="G7" s="12">
-        <v>0.4888</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
         <v>0.7706999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>0.8309000000000001</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
+      <c r="F8" s="12">
+        <v>0.4888</v>
       </c>
       <c r="G8" s="12">
-        <v>0.4888</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
         <v>0.8388999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
+      <c r="F9" s="12">
+        <v>1</v>
       </c>
       <c r="G9" s="12">
-        <v>1</v>
+        <v>0.3259</v>
       </c>
       <c r="H9" s="12">
-        <v>0.3259</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>26</v>
+      <c r="F10" s="12">
+        <v>1</v>
       </c>
       <c r="G10" s="12">
         <v>1</v>
       </c>
       <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H11">
     <cfRule type="dataBar" priority="1">
@@ -2093,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2104,7 +2158,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2115,14 +2169,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2130,9 +2183,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2143,9 +2195,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2170,16 +2221,13 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -2197,17 +2245,14 @@
         <v>0</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H6">
     <cfRule type="dataBar" priority="1">
@@ -2224,7 +2269,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2235,7 +2280,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2246,14 +2291,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2261,9 +2305,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2274,9 +2317,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2301,102 +2343,90 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12">
         <v>0.3789</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
+      <c r="F5" s="12">
+        <v>0.4283</v>
       </c>
       <c r="G5" s="12">
-        <v>0.4283</v>
+        <v>0</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
         <v>0.7472000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12">
         <v>0.9087000000000001</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
+      <c r="F6" s="12">
+        <v>1</v>
       </c>
       <c r="G6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
         <v>0.9792999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
+      <c r="F7" s="12">
+        <v>1</v>
       </c>
       <c r="G7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H8">
     <cfRule type="dataBar" priority="1">
@@ -2413,7 +2443,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2424,7 +2454,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2435,14 +2465,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2450,9 +2479,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2463,9 +2491,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2490,363 +2517,324 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="12">
         <v>0.1047</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12">
         <v>0.0552</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
+      <c r="F5" s="12">
+        <v>0.0629</v>
       </c>
       <c r="G5" s="12">
-        <v>0.0629</v>
+        <v>0</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
         <v>0.0848</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="12">
         <v>0.1047</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12">
         <v>0.1262</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
+      <c r="F6" s="12">
+        <v>0.1438</v>
       </c>
       <c r="G6" s="12">
-        <v>0.1438</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
         <v>0.1176</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="12">
         <v>0.2189</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12">
         <v>0.2144</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
+      <c r="F7" s="12">
+        <v>0.1978</v>
       </c>
       <c r="G7" s="12">
-        <v>0.1978</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
         <v>0.2302</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12">
         <v>0.2189</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>0.2917</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
+      <c r="F8" s="12">
+        <v>0.2859</v>
       </c>
       <c r="G8" s="12">
-        <v>0.2859</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
         <v>0.266</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="12">
         <v>0.6667000000000001</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12">
         <v>0.3644</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
+      <c r="F9" s="12">
+        <v>0.3688</v>
       </c>
       <c r="G9" s="12">
-        <v>0.3688</v>
+        <v>0.3333</v>
       </c>
       <c r="H9" s="12">
-        <v>0.3333</v>
-      </c>
-      <c r="I9" s="12">
         <v>0.5361</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12">
         <v>0.6667000000000001</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12">
         <v>0.5014999999999999</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>26</v>
+      <c r="F10" s="12">
+        <v>0.525</v>
       </c>
       <c r="G10" s="12">
-        <v>0.525</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="H10" s="12">
-        <v>0.5014999999999999</v>
-      </c>
-      <c r="I10" s="12">
         <v>0.5996</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="12">
         <v>0.6667000000000001</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="12">
         <v>0.6667000000000001</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>26</v>
+      <c r="F11" s="12">
+        <v>0.525</v>
       </c>
       <c r="G11" s="12">
-        <v>0.525</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="H11" s="12">
-        <v>0.5014999999999999</v>
-      </c>
-      <c r="I11" s="12">
         <v>0.6378</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="12">
         <v>0.9632999999999999</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12">
         <v>0.6667000000000001</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
+      <c r="F12" s="12">
+        <v>0.5317000000000001</v>
       </c>
       <c r="G12" s="12">
-        <v>0.5317000000000001</v>
+        <v>0.5075</v>
       </c>
       <c r="H12" s="12">
-        <v>0.5075</v>
-      </c>
-      <c r="I12" s="12">
         <v>0.8069</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="12">
         <v>0.7010999999999999</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>26</v>
+      <c r="F13" s="12">
+        <v>0.5710000000000001</v>
       </c>
       <c r="G13" s="12">
-        <v>0.5710000000000001</v>
+        <v>0.5075</v>
       </c>
       <c r="H13" s="12">
-        <v>0.5075</v>
-      </c>
-      <c r="I13" s="12">
         <v>0.8436999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="12">
         <v>0.8289</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>26</v>
+      <c r="F14" s="12">
+        <v>0.7098</v>
       </c>
       <c r="G14" s="12">
-        <v>0.7098</v>
+        <v>0.6026</v>
       </c>
       <c r="H14" s="12">
-        <v>0.6026</v>
-      </c>
-      <c r="I14" s="12">
         <v>0.9015000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="12">
         <v>0.9634</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>26</v>
+      <c r="F15" s="12">
+        <v>1</v>
       </c>
       <c r="G15" s="12">
-        <v>1</v>
+        <v>0.6026</v>
       </c>
       <c r="H15" s="12">
-        <v>0.6026</v>
-      </c>
-      <c r="I15" s="12">
         <v>0.9915999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
+      <c r="F16" s="12">
+        <v>1</v>
       </c>
       <c r="G16" s="12">
-        <v>1</v>
+        <v>0.6026</v>
       </c>
       <c r="H16" s="12">
-        <v>0.6026</v>
-      </c>
-      <c r="I16" s="12">
         <v>1.0001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H17">
     <cfRule type="dataBar" priority="1">
@@ -2863,7 +2851,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2874,7 +2862,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2885,14 +2873,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2900,9 +2887,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -2913,9 +2899,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2940,15 +2925,12 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H5">
     <cfRule type="dataBar" priority="1">
@@ -2965,7 +2947,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2976,7 +2958,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2987,14 +2969,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3002,9 +2983,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -3015,9 +2995,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3042,131 +3021,116 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
+      <c r="F5" s="12">
+        <v>0</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
         <v>0.637</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12">
         <v>0.6498</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
+      <c r="F6" s="12">
+        <v>0.6602</v>
       </c>
       <c r="G6" s="12">
-        <v>0.6602</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
         <v>0.8896000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
+      <c r="F7" s="12">
+        <v>1</v>
       </c>
       <c r="G7" s="12">
-        <v>1</v>
+        <v>0.8493000000000001</v>
       </c>
       <c r="H7" s="12">
-        <v>0.8493000000000001</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
+      <c r="F8" s="12">
+        <v>1</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
       <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H9">
     <cfRule type="dataBar" priority="1">
@@ -3183,7 +3147,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3194,7 +3158,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -3205,14 +3169,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3220,9 +3183,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -3233,9 +3195,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3260,653 +3221,584 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="12">
         <v>0.3202</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
+      <c r="F5" s="12">
+        <v>0</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
         <v>0.1687</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="12">
         <v>0.4729</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
+      <c r="F6" s="12">
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <v>0</v>
       </c>
       <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
         <v>0.2866</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12">
         <v>0.0733</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
+      <c r="F7" s="12">
+        <v>0.08749999999999999</v>
       </c>
       <c r="G7" s="12">
-        <v>0.08749999999999999</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
         <v>0.6375999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>0.08789999999999999</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
+      <c r="F8" s="12">
+        <v>0.105</v>
       </c>
       <c r="G8" s="12">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
         <v>0.6437999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12">
         <v>0.0953</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
+      <c r="F9" s="12">
+        <v>0.1137</v>
       </c>
       <c r="G9" s="12">
-        <v>0.1137</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
         <v>0.647</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12">
         <v>0.1118</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>26</v>
+      <c r="F10" s="12">
+        <v>0.1334</v>
       </c>
       <c r="G10" s="12">
-        <v>0.1334</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
         <v>0.6542</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="12">
         <v>0.1489</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>26</v>
+      <c r="F11" s="12">
+        <v>0.1334</v>
       </c>
       <c r="G11" s="12">
-        <v>0.1334</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
         <v>0.6620999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12">
         <v>0.3029</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
+      <c r="F12" s="12">
+        <v>0.3615</v>
       </c>
       <c r="G12" s="12">
-        <v>0.3615</v>
+        <v>0.0443</v>
       </c>
       <c r="H12" s="12">
-        <v>0.0443</v>
-      </c>
-      <c r="I12" s="12">
         <v>0.736</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="12">
         <v>0.3624</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>26</v>
+      <c r="F13" s="12">
+        <v>0.4326</v>
       </c>
       <c r="G13" s="12">
-        <v>0.4326</v>
+        <v>0.0443</v>
       </c>
       <c r="H13" s="12">
-        <v>0.0443</v>
-      </c>
-      <c r="I13" s="12">
         <v>0.7615999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="12">
         <v>0.4484</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>26</v>
+      <c r="F14" s="12">
+        <v>0.5275</v>
       </c>
       <c r="G14" s="12">
-        <v>0.5275</v>
+        <v>0.2165</v>
       </c>
       <c r="H14" s="12">
-        <v>0.2165</v>
-      </c>
-      <c r="I14" s="12">
         <v>0.7866</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="12">
         <v>0.5171</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>26</v>
+      <c r="F15" s="12">
+        <v>0.6084000000000001</v>
       </c>
       <c r="G15" s="12">
-        <v>0.6084000000000001</v>
+        <v>0.3365</v>
       </c>
       <c r="H15" s="12">
-        <v>0.3365</v>
-      </c>
-      <c r="I15" s="12">
         <v>0.8173999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="12">
         <v>0.5514</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
+      <c r="F16" s="12">
+        <v>0.6487999999999999</v>
       </c>
       <c r="G16" s="12">
-        <v>0.6487999999999999</v>
+        <v>0.4733</v>
       </c>
       <c r="H16" s="12">
-        <v>0.4733</v>
-      </c>
-      <c r="I16" s="12">
         <v>0.8326</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="12">
         <v>0.6167</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
+      <c r="F17" s="12">
+        <v>0.7256</v>
       </c>
       <c r="G17" s="12">
-        <v>0.7256</v>
+        <v>0.4733</v>
       </c>
       <c r="H17" s="12">
-        <v>0.4733</v>
-      </c>
-      <c r="I17" s="12">
         <v>0.862</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="12">
         <v>0.662</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>26</v>
+      <c r="F18" s="12">
+        <v>0.7787999999999999</v>
       </c>
       <c r="G18" s="12">
-        <v>0.7787999999999999</v>
+        <v>0.4733</v>
       </c>
       <c r="H18" s="12">
-        <v>0.4733</v>
-      </c>
-      <c r="I18" s="12">
         <v>0.8822</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="12">
         <v>0.7108</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>26</v>
+      <c r="F19" s="12">
+        <v>0.8362000000000001</v>
       </c>
       <c r="G19" s="12">
-        <v>0.8362000000000001</v>
+        <v>0.4733</v>
       </c>
       <c r="H19" s="12">
-        <v>0.4733</v>
-      </c>
-      <c r="I19" s="12">
         <v>0.9039999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="12">
         <v>0.7437999999999999</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>26</v>
+      <c r="F20" s="12">
+        <v>0.8751000000000001</v>
       </c>
       <c r="G20" s="12">
-        <v>0.8751000000000001</v>
+        <v>0.4733</v>
       </c>
       <c r="H20" s="12">
-        <v>0.4733</v>
-      </c>
-      <c r="I20" s="12">
         <v>0.9188</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="12">
         <v>0.7902</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>26</v>
+      <c r="F21" s="12">
+        <v>0.9297</v>
       </c>
       <c r="G21" s="12">
-        <v>0.9297</v>
+        <v>0.5494</v>
       </c>
       <c r="H21" s="12">
-        <v>0.5494</v>
-      </c>
-      <c r="I21" s="12">
         <v>0.9396</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="12">
         <v>0.8106</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>26</v>
+      <c r="F22" s="12">
+        <v>0.9537</v>
       </c>
       <c r="G22" s="12">
-        <v>0.9537</v>
+        <v>0.7025</v>
       </c>
       <c r="H22" s="12">
-        <v>0.7025</v>
-      </c>
-      <c r="I22" s="12">
         <v>0.9488</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="10">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="12">
         <v>0.8377</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>26</v>
+      <c r="F23" s="12">
+        <v>0.9856</v>
       </c>
       <c r="G23" s="12">
-        <v>0.9856</v>
+        <v>0.7025</v>
       </c>
       <c r="H23" s="12">
-        <v>0.7025</v>
-      </c>
-      <c r="I23" s="12">
         <v>0.9608</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="10">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="12">
         <v>0.8692</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>26</v>
+      <c r="F24" s="12">
+        <v>1</v>
       </c>
       <c r="G24" s="12">
-        <v>1</v>
+        <v>0.7025</v>
       </c>
       <c r="H24" s="12">
-        <v>0.7025</v>
-      </c>
-      <c r="I24" s="12">
         <v>0.9706999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:8">
       <c r="A25" s="10">
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="12">
         <v>0.9345</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>26</v>
+      <c r="F25" s="12">
+        <v>1</v>
       </c>
       <c r="G25" s="12">
-        <v>1</v>
+        <v>0.9340999999999999</v>
       </c>
       <c r="H25" s="12">
-        <v>0.9340999999999999</v>
-      </c>
-      <c r="I25" s="12">
         <v>0.9853000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" s="10">
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>26</v>
+      <c r="F26" s="12">
+        <v>1</v>
       </c>
       <c r="G26" s="12">
         <v>1</v>
       </c>
       <c r="H26" s="12">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H27">
     <cfRule type="dataBar" priority="1">
@@ -3923,7 +3815,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3934,7 +3826,7 @@
     <col min="4" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -3945,14 +3837,13 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3960,9 +3851,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -3973,9 +3863,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -4000,305 +3889,272 @@
       <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="12">
         <v>0.4601</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12">
         <v>0.2841</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>26</v>
+      <c r="F5" s="12">
+        <v>0.2841</v>
       </c>
       <c r="G5" s="12">
-        <v>0.2841</v>
+        <v>0.117</v>
       </c>
       <c r="H5" s="12">
-        <v>0.117</v>
-      </c>
-      <c r="I5" s="12">
         <v>0.3628</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12">
         <v>0.4044</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
+      <c r="F6" s="12">
+        <v>0.4044</v>
       </c>
       <c r="G6" s="12">
-        <v>0.4044</v>
+        <v>0.117</v>
       </c>
       <c r="H6" s="12">
-        <v>0.117</v>
-      </c>
-      <c r="I6" s="12">
         <v>0.7254</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12">
         <v>0.4944</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>26</v>
+      <c r="F7" s="12">
+        <v>0.4794</v>
       </c>
       <c r="G7" s="12">
-        <v>0.4794</v>
+        <v>0.117</v>
       </c>
       <c r="H7" s="12">
-        <v>0.117</v>
-      </c>
-      <c r="I7" s="12">
         <v>0.7634000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>0.5844</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>26</v>
+      <c r="F8" s="12">
+        <v>0.5694</v>
       </c>
       <c r="G8" s="12">
-        <v>0.5694</v>
+        <v>0.117</v>
       </c>
       <c r="H8" s="12">
-        <v>0.117</v>
-      </c>
-      <c r="I8" s="12">
         <v>0.8048999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12">
         <v>0.6744</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
+      <c r="F9" s="12">
+        <v>0.6594</v>
       </c>
       <c r="G9" s="12">
-        <v>0.6594</v>
+        <v>0.117</v>
       </c>
       <c r="H9" s="12">
-        <v>0.117</v>
-      </c>
-      <c r="I9" s="12">
         <v>0.8465</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12">
         <v>0.7495000000000001</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>26</v>
+      <c r="F10" s="12">
+        <v>0.7343999999999999</v>
       </c>
       <c r="G10" s="12">
-        <v>0.7343999999999999</v>
+        <v>0.4344</v>
       </c>
       <c r="H10" s="12">
-        <v>0.4344</v>
-      </c>
-      <c r="I10" s="12">
         <v>0.8811</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="12">
         <v>0.8245</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>26</v>
+      <c r="F11" s="12">
+        <v>0.8095</v>
       </c>
       <c r="G11" s="12">
-        <v>0.8095</v>
+        <v>0.4344</v>
       </c>
       <c r="H11" s="12">
-        <v>0.4344</v>
-      </c>
-      <c r="I11" s="12">
         <v>0.9157000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12">
         <v>0.8893000000000001</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
+      <c r="F12" s="12">
+        <v>0.8893000000000001</v>
       </c>
       <c r="G12" s="12">
-        <v>0.8893000000000001</v>
+        <v>0.4344</v>
       </c>
       <c r="H12" s="12">
-        <v>0.4344</v>
-      </c>
-      <c r="I12" s="12">
         <v>0.9490000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="12">
         <v>0.9904999999999999</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>26</v>
+      <c r="F13" s="12">
+        <v>0.9761</v>
       </c>
       <c r="G13" s="12">
-        <v>0.9761</v>
+        <v>0.4344</v>
       </c>
       <c r="H13" s="12">
-        <v>0.4344</v>
-      </c>
-      <c r="I13" s="12">
         <v>0.9924000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>26</v>
+      <c r="F14" s="12">
+        <v>1</v>
       </c>
       <c r="G14" s="12">
         <v>1</v>
       </c>
       <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:H15">
     <cfRule type="dataBar" priority="1">
